--- a/InputData/bldgs/ECiCpCU/Embedded Carbon in Components per Currency Unit.xlsx
+++ b/InputData/bldgs/ECiCpCU/Embedded Carbon in Components per Currency Unit.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\ECiCpCU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\ECiCpCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9F0CC4-679F-4E16-9E4F-37A5174CCB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="21075" windowHeight="12840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RFF Table 2" sheetId="2" r:id="rId2"/>
-    <sheet name="ECiCpCU" sheetId="3" r:id="rId3"/>
+    <sheet name="Texas Notes" sheetId="4" r:id="rId3"/>
+    <sheet name="Texas Table" sheetId="5" r:id="rId4"/>
+    <sheet name="ECiCpCU" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t>Resources for the Future</t>
   </si>
@@ -138,16 +151,127 @@
   </si>
   <si>
     <t>and divide by the component cost.</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Texas 2018 GHG Emissions for Cement (Million Metric Tons CO2e)</t>
+  </si>
+  <si>
+    <t>EPA FLIGHT tool</t>
+  </si>
+  <si>
+    <t>https://ghgdata.epa.gov/ghgp/main.do#/facility/?q=Find%20a%20Facility%20or%20Location&amp;st=TX&amp;bs=&amp;et=&amp;fid=&amp;sf=11001000&amp;lowE=-20000&amp;highE=23000000&amp;g1=1&amp;g2=1&amp;g3=1&amp;g4=1&amp;g5=1&amp;g6=0&amp;g7=1&amp;g8=1&amp;g9=1&amp;g10=1&amp;g11=1&amp;g12=1&amp;s1=0&amp;s2=0&amp;s3=0&amp;s4=1&amp;s5=0&amp;s6=0&amp;s7=0&amp;s8=0&amp;s9=0&amp;s10=0&amp;s201=0&amp;s202=0&amp;s203=0&amp;s204=0&amp;s301=0&amp;s302=0&amp;s303=0&amp;s304=0&amp;s305=0&amp;s306=0&amp;s307=0&amp;s401=1&amp;s402=0&amp;s403=0&amp;s404=0&amp;s405=0&amp;s601=0&amp;s602=0&amp;s701=0&amp;s702=0&amp;s703=0&amp;s704=0&amp;s705=0&amp;s706=0&amp;s707=0&amp;s708=0&amp;s709=0&amp;s710=0&amp;s711=0&amp;s801=0&amp;s802=0&amp;s803=0&amp;s804=0&amp;s805=0&amp;s806=0&amp;s807=0&amp;s808=0&amp;s809=0&amp;s810=0&amp;s901=0&amp;s902=0&amp;s903=0&amp;s904=0&amp;s905=0&amp;s906=0&amp;s907=0&amp;s908=0&amp;s909=0&amp;s910=0&amp;s911=0&amp;si=&amp;ss=&amp;so=0&amp;ds=E&amp;yr=2018&amp;tr=current&amp;cyr=2018&amp;ol=0&amp;sl=0&amp;rs=ALL</t>
+  </si>
+  <si>
+    <t>https://www.cement.org/docs/default-source/market-economics-pdfs/2019-state-pdfs/tx-statefacsht-19.pdf?sfvrsn=6b7ae3bf_2</t>
+  </si>
+  <si>
+    <t>(MtCO2e)</t>
+  </si>
+  <si>
+    <t>US 2018 Carbon Intensity (tons CO2/million $)</t>
+  </si>
+  <si>
+    <t>Texas 2018 Carbon Intensity (tons CO2/million $)</t>
+  </si>
+  <si>
+    <t>My goal was to find newer, and Texas-specific numbers.</t>
+  </si>
+  <si>
+    <t>It's not easy to find data for some of these categories, so I ignored the smaller emitting industries and focused on the big ones: cement, glass, and chemicals</t>
+  </si>
+  <si>
+    <t>in 2012 $B</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Texas 2015 GHG Emissions for Chemicals (Million Metric Tons CO2e)</t>
+  </si>
+  <si>
+    <t>https://comptroller.texas.gov/economy/economic-data/manufacturing/overview.php</t>
+  </si>
+  <si>
+    <t>*Comparable to the 1441 value used by the EPS baseline</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/iTable/iTable.cfm?reqid=56&amp;step=2&amp;isuri=1#reqid=56&amp;step=2&amp;isuri=1</t>
+  </si>
+  <si>
+    <t>US 2018 GHG Emissions for Glass (Million Metric Tons CO2e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The EPS numbers are for 2002… </t>
+  </si>
+  <si>
+    <t>US 2018 Glass Industry Production (2012 $B)</t>
+  </si>
+  <si>
+    <t>Texas 2018 Cement Industry Production (2018 $B)</t>
+  </si>
+  <si>
+    <t>Texas 2015 Chemicals Industry Production (2015 $B)</t>
+  </si>
+  <si>
+    <t>Texas 2015 Carbon Intensity (tons CO2/million $)</t>
+  </si>
+  <si>
+    <t>CO2 Intensity (tons CO2/million 2012 $)</t>
+  </si>
+  <si>
+    <t>Note that Texas has 11 cement plants. All of them are reported in the EPA Flight Tool</t>
+  </si>
+  <si>
+    <t>https://www.cement.org/docs/default-source/market-economics-pdfs/2018-fact-sheets/tx-statefacsht-18.pdf?sfvrsn=c1fe0bf_2&amp;sfvrsn=c1fe0bf_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*this is much lower than the 5080 number (2002) used by EPS for 2012 - some reading shows that the cement industry has done a lot in the last decade to reduce GHG emissions (they've been under the spotlight as a CO2 intensive industry) </t>
+  </si>
+  <si>
+    <t>https://19january2017snapshot.epa.gov/sites/production/files/2016-03/documents/warm_v14_containers_packaging_non-durable_goods_materials.pdf</t>
+  </si>
+  <si>
+    <t>I did find a 2016 report from the EPA</t>
+  </si>
+  <si>
+    <t>The problem is that it cites a bunch of 2002 DOE data for its numbers</t>
+  </si>
+  <si>
+    <t>This makes me think that not much work has been done on glass emissions latetly…</t>
+  </si>
+  <si>
+    <t>And here is another website/report that points to 2002 data</t>
+  </si>
+  <si>
+    <t>https://www.glass-ts.com/news/carbon-trust-gts-study-proves-the-benefits-of-using-recycled-glass</t>
+  </si>
+  <si>
+    <t>apparently 2002 was a big year for studying the glass industry</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>***I am not sure what percentage of Texas Chemical plants are included in the EPA FLIGHT tool. But since this 1472 number is comparable to the 1441 value from EPS, I am comfortable using the 1441 value.</t>
+  </si>
+  <si>
+    <t>I was only successul in finding data for the cement industry. So I changed that and left the rest as is.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +318,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +348,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +423,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -298,16 +441,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,6 +556,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -433,6 +608,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -608,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +902,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -718,18 +910,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -737,13 +932,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -751,13 +946,13 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -765,13 +960,13 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -779,7 +974,7 @@
         <v>168.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -787,21 +982,22 @@
         <v>1197.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>5080.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -809,7 +1005,7 @@
         <v>1197.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -867,14 +1063,471 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFA3781-F4C9-4B51-A4A2-F6B8B248DB83}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="16">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="13">
+        <f>B11*1.10231</f>
+        <v>10.141251999999998</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3.1720000000000002</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9">
+        <f>B13*0.91</f>
+        <v>2.8865200000000004</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="14">
+        <f>(B12*10000000)/(B14*10000)</f>
+        <v>3513.3143023433049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+    </row>
+    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="13" t="e">
+        <f>B28*1.10231</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="9">
+        <f>B30</f>
+        <v>24.5</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="15" t="e">
+        <f>(B29*10000000)/(B31*10000)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="34" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="16">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="13">
+        <f>B38*1.10231</f>
+        <v>62.831669999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="9">
+        <v>44</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="9">
+        <f>B40*0.97</f>
+        <v>42.68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="14">
+        <f>(B39*10000000)/(B41*10000)</f>
+        <v>1472.1572164948454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1" location="/facility/?q=Find%20a%20Facility%20or%20Location&amp;st=TX&amp;bs=&amp;et=&amp;fid=&amp;sf=11001000&amp;lowE=-20000&amp;highE=23000000&amp;g1=1&amp;g2=1&amp;g3=1&amp;g4=1&amp;g5=1&amp;g6=0&amp;g7=1&amp;g8=1&amp;g9=1&amp;g10=1&amp;g11=1&amp;g12=1&amp;s1=0&amp;s2=0&amp;s3=0&amp;s4=1&amp;s5=0&amp;s6=0&amp;s7=0&amp;s8=0&amp;s9=0&amp;s10=0&amp;s201=0&amp;s202=0&amp;s203=0&amp;s204=0&amp;s301=0&amp;s302=0&amp;s303=0&amp;s304=0&amp;s305=0&amp;s306=0&amp;s307=0&amp;s401=1&amp;s402=0&amp;s403=0&amp;s404=0&amp;s405=0&amp;s601=0&amp;s602=0&amp;s701=0&amp;s702=0&amp;s703=0&amp;s704=0&amp;s705=0&amp;s706=0&amp;s707=0&amp;s708=0&amp;s709=0&amp;s710=0&amp;s711=0&amp;s801=0&amp;s802=0&amp;s803=0&amp;s804=0&amp;s805=0&amp;s806=0&amp;s807=0&amp;s808=0&amp;s809=0&amp;s810=0&amp;s901=0&amp;s902=0&amp;s903=0&amp;s904=0&amp;s905=0&amp;s906=0&amp;s907=0&amp;s908=0&amp;s909=0&amp;s910=0&amp;s911=0&amp;si=&amp;ss=&amp;so=0&amp;ds=E&amp;yr=2018&amp;tr=current&amp;cyr=2018&amp;ol=0&amp;sl=0&amp;rs=ALL" display="https://ghgdata.epa.gov/ghgp/main.do - /facility/?q=Find%20a%20Facility%20or%20Location&amp;st=TX&amp;bs=&amp;et=&amp;fid=&amp;sf=11001000&amp;lowE=-20000&amp;highE=23000000&amp;g1=1&amp;g2=1&amp;g3=1&amp;g4=1&amp;g5=1&amp;g6=0&amp;g7=1&amp;g8=1&amp;g9=1&amp;g10=1&amp;g11=1&amp;g12=1&amp;s1=0&amp;s2=0&amp;s3=0&amp;s4=1&amp;s5=0&amp;s6=0&amp;s7=0&amp;s8=0&amp;s9=0&amp;s10=0&amp;s201=0&amp;s202=0&amp;s203=0&amp;s204=0&amp;s301=0&amp;s302=0&amp;s303=0&amp;s304=0&amp;s305=0&amp;s306=0&amp;s307=0&amp;s401=1&amp;s402=0&amp;s403=0&amp;s404=0&amp;s405=0&amp;s601=0&amp;s602=0&amp;s701=0&amp;s702=0&amp;s703=0&amp;s704=0&amp;s705=0&amp;s706=0&amp;s707=0&amp;s708=0&amp;s709=0&amp;s710=0&amp;s711=0&amp;s801=0&amp;s802=0&amp;s803=0&amp;s804=0&amp;s805=0&amp;s806=0&amp;s807=0&amp;s808=0&amp;s809=0&amp;s810=0&amp;s901=0&amp;s902=0&amp;s903=0&amp;s904=0&amp;s905=0&amp;s906=0&amp;s907=0&amp;s908=0&amp;s909=0&amp;s910=0&amp;s911=0&amp;si=&amp;ss=&amp;so=0&amp;ds=E&amp;yr=2018&amp;tr=current&amp;cyr=2018&amp;ol=0&amp;sl=0&amp;rs=ALL" xr:uid="{46C23C05-38CA-4499-A522-5E9FDB0DBAC3}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{B555AAAE-7140-4FE6-9771-25883A63F4E8}"/>
+    <hyperlink ref="C40" r:id="rId3" xr:uid="{6B578E3A-A7E4-492A-8C9D-C4421BDCFE96}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{EDFE4563-1713-4C91-9B8F-46BA60B1B9CD}"/>
+    <hyperlink ref="C30" r:id="rId5" location="reqid=56&amp;step=2&amp;isuri=1" display="https://apps.bea.gov/iTable/iTable.cfm?reqid=56&amp;step=2&amp;isuri=1 - reqid=56&amp;step=2&amp;isuri=1" xr:uid="{98E4AAF4-D2F8-41EC-AA70-6BC5D9638B78}"/>
+    <hyperlink ref="B21" r:id="rId6" xr:uid="{AA868E84-BD69-4B59-8E58-ABB1FCB31142}"/>
+    <hyperlink ref="B25" r:id="rId7" xr:uid="{A08433AF-704E-40CD-8E18-875E5EE07894}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CB08EB-371D-45C2-BEBC-18C7352AC21A}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" style="9" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9">
+        <f>'RFF Table 2'!B3/About!$A$20</f>
+        <v>81.9158460161146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9">
+        <f>'RFF Table 2'!B6/About!$A$20</f>
+        <v>81.9158460161146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <f>'RFF Table 2'!B9/About!$A$20</f>
+        <v>150.49239033124439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <f>'RFF Table 2'!B10/About!$A$20</f>
+        <v>1071.888988361683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <f>'Texas Notes'!B15</f>
+        <v>3513.3143023433049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="12">
+        <f>'RFF Table 2'!B14/About!$A$20</f>
+        <v>1071.888988361683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="12">
+        <f>'RFF Table 2'!B15/About!$A$20</f>
+        <v>1292.8379588182631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9">
+        <f>'RFF Table 2'!B18/About!$A$20</f>
+        <v>81.9158460161146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9">
+        <f>'RFF Table 2'!B19/About!$A$20</f>
+        <v>106.62488809310653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="9">
+        <f>'RFF Table 2'!B22/About!$A$20</f>
+        <v>106.62488809310653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="9">
+        <f>'RFF Table 2'!B23/About!$A$20</f>
+        <v>64.547896150402863</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,8 +1549,8 @@
         <v>23</v>
       </c>
       <c r="B2" s="10">
-        <f>'RFF Table 2'!B3/10^6/About!$A$20</f>
-        <v>8.191584601611459E-5</v>
+        <f>'Texas Table'!B3/10^6</f>
+        <v>8.1915846016114604E-5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,8 +1558,8 @@
         <v>24</v>
       </c>
       <c r="B3" s="10">
-        <f>'RFF Table 2'!B6/10^6/About!$A$20</f>
-        <v>8.191584601611459E-5</v>
+        <f>'Texas Table'!B6/10^6</f>
+        <v>8.1915846016114604E-5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,8 +1567,8 @@
         <v>11</v>
       </c>
       <c r="B4" s="10">
-        <f>AVERAGE('RFF Table 2'!B9:B11)/10^6/About!$A$20</f>
-        <v>1.9236347358997314E-3</v>
+        <f>AVERAGE('Texas Table'!B9:B11)/10^6</f>
+        <v>1.5785652270120774E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,8 +1576,8 @@
         <v>25</v>
       </c>
       <c r="B5" s="10">
-        <f>AVERAGE('RFF Table 2'!B14:B15)/10^6/About!$A$20</f>
-        <v>1.1823634735899729E-3</v>
+        <f>AVERAGE('Texas Table'!B14:B15)/10^6</f>
+        <v>1.1823634735899731E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -932,8 +1585,8 @@
         <v>26</v>
       </c>
       <c r="B6" s="10">
-        <f>AVERAGE('RFF Table 2'!B18:B19)/10^6/About!$A$20</f>
-        <v>9.427036705461056E-5</v>
+        <f>AVERAGE('Texas Table'!B18:B19)/10^6</f>
+        <v>9.4270367054610573E-5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -941,7 +1594,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="10">
-        <f>AVERAGE('RFF Table 2'!B22:B23)/10^6/About!$A$20</f>
+        <f>AVERAGE('Texas Table'!B22:B23)/10^6</f>
         <v>8.5586392121754694E-5</v>
       </c>
     </row>

--- a/InputData/bldgs/ECiCpCU/Embedded Carbon in Components per Currency Unit.xlsx
+++ b/InputData/bldgs/ECiCpCU/Embedded Carbon in Components per Currency Unit.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\ECiCpCU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmr4337\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9F0CC4-679F-4E16-9E4F-37A5174CCB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Texas Table" sheetId="5" r:id="rId4"/>
     <sheet name="ECiCpCU" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -177,12 +176,6 @@
     <t>Texas 2018 Carbon Intensity (tons CO2/million $)</t>
   </si>
   <si>
-    <t>My goal was to find newer, and Texas-specific numbers.</t>
-  </si>
-  <si>
-    <t>It's not easy to find data for some of these categories, so I ignored the smaller emitting industries and focused on the big ones: cement, glass, and chemicals</t>
-  </si>
-  <si>
     <t>in 2012 $B</t>
   </si>
   <si>
@@ -207,9 +200,6 @@
     <t>US 2018 GHG Emissions for Glass (Million Metric Tons CO2e)</t>
   </si>
   <si>
-    <t xml:space="preserve">The EPS numbers are for 2002… </t>
-  </si>
-  <si>
     <t>US 2018 Glass Industry Production (2012 $B)</t>
   </si>
   <si>
@@ -261,13 +251,22 @@
     <t>***I am not sure what percentage of Texas Chemical plants are included in the EPA FLIGHT tool. But since this 1472 number is comparable to the 1441 value from EPS, I am comfortable using the 1441 value.</t>
   </si>
   <si>
-    <t>I was only successul in finding data for the cement industry. So I changed that and left the rest as is.</t>
+    <t>Goal: to find newer, and Texas-specific numbers.</t>
+  </si>
+  <si>
+    <t>Focused on the big emitting industries: cement, glass, and chemicals and ignored smaller ones.</t>
+  </si>
+  <si>
+    <t>Comprehensive data was only available for cement industry; these are the only updated numbers following the data below.</t>
+  </si>
+  <si>
+    <t>Information on Glass/Chemicals hidden below (Input data not updated, just for reference)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
@@ -458,14 +457,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,23 +555,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -608,23 +590,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -800,7 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -902,7 +867,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -910,7 +875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1063,11 +1028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFA3781-F4C9-4B51-A4A2-F6B8B248DB83}">
-  <dimension ref="A1:E44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,279 +1042,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>57</v>
+      <c r="A1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="A3" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>39</v>
+      <c r="A6" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="2"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>63</v>
+      <c r="A7" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="16">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="16">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B11" s="13">
+        <f>B10*1.10231</f>
+        <v>10.141251999999998</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="13">
-        <f>B11*1.10231</f>
-        <v>10.141251999999998</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3.1720000000000002</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B13" s="9">
-        <v>3.1720000000000002</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
+        <f>B12*0.91</f>
+        <v>2.8865200000000004</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="14">
+        <f>(B11*10000000)/(B13*10000)</f>
+        <v>3513.3143023433049</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+    </row>
+    <row r="23" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="13" t="e">
+        <f>B26*1.10231</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="9">
+        <f>B28</f>
+        <v>24.5</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="15" t="e">
+        <f>(B27*10000000)/(B29*10000)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="9">
-        <f>B13*0.91</f>
-        <v>2.8865200000000004</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="14">
-        <f>(B12*10000000)/(B14*10000)</f>
-        <v>3513.3143023433049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+    </row>
+    <row r="32" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-    </row>
-    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="B32" s="16">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="13">
+        <f>B32*1.10231</f>
+        <v>62.831669999999995</v>
+      </c>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="9">
+        <v>44</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="9">
+        <f>B34*0.97</f>
+        <v>42.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="14">
+        <f>(B33*10000000)/(B35*10000)</f>
+        <v>1472.1572164948454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="13" t="e">
-        <f>B28*1.10231</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="9">
-        <v>24.5</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="9">
-        <f>B30</f>
-        <v>24.5</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="15" t="e">
-        <f>(B29*10000000)/(B31*10000)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="34" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
-    </row>
-    <row r="36" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="16">
-        <v>57</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="13">
-        <f>B38*1.10231</f>
-        <v>62.831669999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="9">
-        <v>44</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="9">
-        <f>B40*0.97</f>
-        <v>42.68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="14">
-        <f>(B39*10000000)/(B41*10000)</f>
-        <v>1472.1572164948454</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" location="/facility/?q=Find%20a%20Facility%20or%20Location&amp;st=TX&amp;bs=&amp;et=&amp;fid=&amp;sf=11001000&amp;lowE=-20000&amp;highE=23000000&amp;g1=1&amp;g2=1&amp;g3=1&amp;g4=1&amp;g5=1&amp;g6=0&amp;g7=1&amp;g8=1&amp;g9=1&amp;g10=1&amp;g11=1&amp;g12=1&amp;s1=0&amp;s2=0&amp;s3=0&amp;s4=1&amp;s5=0&amp;s6=0&amp;s7=0&amp;s8=0&amp;s9=0&amp;s10=0&amp;s201=0&amp;s202=0&amp;s203=0&amp;s204=0&amp;s301=0&amp;s302=0&amp;s303=0&amp;s304=0&amp;s305=0&amp;s306=0&amp;s307=0&amp;s401=1&amp;s402=0&amp;s403=0&amp;s404=0&amp;s405=0&amp;s601=0&amp;s602=0&amp;s701=0&amp;s702=0&amp;s703=0&amp;s704=0&amp;s705=0&amp;s706=0&amp;s707=0&amp;s708=0&amp;s709=0&amp;s710=0&amp;s711=0&amp;s801=0&amp;s802=0&amp;s803=0&amp;s804=0&amp;s805=0&amp;s806=0&amp;s807=0&amp;s808=0&amp;s809=0&amp;s810=0&amp;s901=0&amp;s902=0&amp;s903=0&amp;s904=0&amp;s905=0&amp;s906=0&amp;s907=0&amp;s908=0&amp;s909=0&amp;s910=0&amp;s911=0&amp;si=&amp;ss=&amp;so=0&amp;ds=E&amp;yr=2018&amp;tr=current&amp;cyr=2018&amp;ol=0&amp;sl=0&amp;rs=ALL" display="https://ghgdata.epa.gov/ghgp/main.do - /facility/?q=Find%20a%20Facility%20or%20Location&amp;st=TX&amp;bs=&amp;et=&amp;fid=&amp;sf=11001000&amp;lowE=-20000&amp;highE=23000000&amp;g1=1&amp;g2=1&amp;g3=1&amp;g4=1&amp;g5=1&amp;g6=0&amp;g7=1&amp;g8=1&amp;g9=1&amp;g10=1&amp;g11=1&amp;g12=1&amp;s1=0&amp;s2=0&amp;s3=0&amp;s4=1&amp;s5=0&amp;s6=0&amp;s7=0&amp;s8=0&amp;s9=0&amp;s10=0&amp;s201=0&amp;s202=0&amp;s203=0&amp;s204=0&amp;s301=0&amp;s302=0&amp;s303=0&amp;s304=0&amp;s305=0&amp;s306=0&amp;s307=0&amp;s401=1&amp;s402=0&amp;s403=0&amp;s404=0&amp;s405=0&amp;s601=0&amp;s602=0&amp;s701=0&amp;s702=0&amp;s703=0&amp;s704=0&amp;s705=0&amp;s706=0&amp;s707=0&amp;s708=0&amp;s709=0&amp;s710=0&amp;s711=0&amp;s801=0&amp;s802=0&amp;s803=0&amp;s804=0&amp;s805=0&amp;s806=0&amp;s807=0&amp;s808=0&amp;s809=0&amp;s810=0&amp;s901=0&amp;s902=0&amp;s903=0&amp;s904=0&amp;s905=0&amp;s906=0&amp;s907=0&amp;s908=0&amp;s909=0&amp;s910=0&amp;s911=0&amp;si=&amp;ss=&amp;so=0&amp;ds=E&amp;yr=2018&amp;tr=current&amp;cyr=2018&amp;ol=0&amp;sl=0&amp;rs=ALL" xr:uid="{46C23C05-38CA-4499-A522-5E9FDB0DBAC3}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{B555AAAE-7140-4FE6-9771-25883A63F4E8}"/>
-    <hyperlink ref="C40" r:id="rId3" xr:uid="{6B578E3A-A7E4-492A-8C9D-C4421BDCFE96}"/>
-    <hyperlink ref="A8" r:id="rId4" xr:uid="{EDFE4563-1713-4C91-9B8F-46BA60B1B9CD}"/>
-    <hyperlink ref="C30" r:id="rId5" location="reqid=56&amp;step=2&amp;isuri=1" display="https://apps.bea.gov/iTable/iTable.cfm?reqid=56&amp;step=2&amp;isuri=1 - reqid=56&amp;step=2&amp;isuri=1" xr:uid="{98E4AAF4-D2F8-41EC-AA70-6BC5D9638B78}"/>
-    <hyperlink ref="B21" r:id="rId6" xr:uid="{AA868E84-BD69-4B59-8E58-ABB1FCB31142}"/>
-    <hyperlink ref="B25" r:id="rId7" xr:uid="{A08433AF-704E-40CD-8E18-875E5EE07894}"/>
+    <hyperlink ref="D10" r:id="rId1" location="/facility/?q=Find%20a%20Facility%20or%20Location&amp;st=TX&amp;bs=&amp;et=&amp;fid=&amp;sf=11001000&amp;lowE=-20000&amp;highE=23000000&amp;g1=1&amp;g2=1&amp;g3=1&amp;g4=1&amp;g5=1&amp;g6=0&amp;g7=1&amp;g8=1&amp;g9=1&amp;g10=1&amp;g11=1&amp;g12=1&amp;s1=0&amp;s2=0&amp;s3=0&amp;s4=1&amp;s5=0&amp;s6=0&amp;s7=0&amp;s8=0&amp;s9=0&amp;s10=0&amp;s201=0&amp;s202=0&amp;s203=0&amp;s204=0&amp;s301=0&amp;s302=0&amp;s303=0&amp;s304=0&amp;s305=0&amp;s306=0&amp;s307=0&amp;s401=1&amp;s402=0&amp;s403=0&amp;s404=0&amp;s405=0&amp;s601=0&amp;s602=0&amp;s701=0&amp;s702=0&amp;s703=0&amp;s704=0&amp;s705=0&amp;s706=0&amp;s707=0&amp;s708=0&amp;s709=0&amp;s710=0&amp;s711=0&amp;s801=0&amp;s802=0&amp;s803=0&amp;s804=0&amp;s805=0&amp;s806=0&amp;s807=0&amp;s808=0&amp;s809=0&amp;s810=0&amp;s901=0&amp;s902=0&amp;s903=0&amp;s904=0&amp;s905=0&amp;s906=0&amp;s907=0&amp;s908=0&amp;s909=0&amp;s910=0&amp;s911=0&amp;si=&amp;ss=&amp;so=0&amp;ds=E&amp;yr=2018&amp;tr=current&amp;cyr=2018&amp;ol=0&amp;sl=0&amp;rs=ALL" display="https://ghgdata.epa.gov/ghgp/main.do - /facility/?q=Find%20a%20Facility%20or%20Location&amp;st=TX&amp;bs=&amp;et=&amp;fid=&amp;sf=11001000&amp;lowE=-20000&amp;highE=23000000&amp;g1=1&amp;g2=1&amp;g3=1&amp;g4=1&amp;g5=1&amp;g6=0&amp;g7=1&amp;g8=1&amp;g9=1&amp;g10=1&amp;g11=1&amp;g12=1&amp;s1=0&amp;s2=0&amp;s3=0&amp;s4=1&amp;s5=0&amp;s6=0&amp;s7=0&amp;s8=0&amp;s9=0&amp;s10=0&amp;s201=0&amp;s202=0&amp;s203=0&amp;s204=0&amp;s301=0&amp;s302=0&amp;s303=0&amp;s304=0&amp;s305=0&amp;s306=0&amp;s307=0&amp;s401=1&amp;s402=0&amp;s403=0&amp;s404=0&amp;s405=0&amp;s601=0&amp;s602=0&amp;s701=0&amp;s702=0&amp;s703=0&amp;s704=0&amp;s705=0&amp;s706=0&amp;s707=0&amp;s708=0&amp;s709=0&amp;s710=0&amp;s711=0&amp;s801=0&amp;s802=0&amp;s803=0&amp;s804=0&amp;s805=0&amp;s806=0&amp;s807=0&amp;s808=0&amp;s809=0&amp;s810=0&amp;s901=0&amp;s902=0&amp;s903=0&amp;s904=0&amp;s905=0&amp;s906=0&amp;s907=0&amp;s908=0&amp;s909=0&amp;s910=0&amp;s911=0&amp;si=&amp;ss=&amp;so=0&amp;ds=E&amp;yr=2018&amp;tr=current&amp;cyr=2018&amp;ol=0&amp;sl=0&amp;rs=ALL"/>
+    <hyperlink ref="C12" r:id="rId2"/>
+    <hyperlink ref="C34" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="C28" r:id="rId5" location="reqid=56&amp;step=2&amp;isuri=1" display="https://apps.bea.gov/iTable/iTable.cfm?reqid=56&amp;step=2&amp;isuri=1 - reqid=56&amp;step=2&amp;isuri=1"/>
+    <hyperlink ref="B19" r:id="rId6"/>
+    <hyperlink ref="B23" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
@@ -1357,7 +1336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CB08EB-371D-45C2-BEBC-18C7352AC21A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1376,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12">
-        <f>'Texas Notes'!B15</f>
+        <f>'Texas Notes'!B14</f>
         <v>3513.3143023433049</v>
       </c>
     </row>
@@ -1520,13 +1499,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
